--- a/APM files/141031348/141031348 IMPORT EPCUserAccount-Import.xlsx
+++ b/APM files/141031348/141031348 IMPORT EPCUserAccount-Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141031348/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EF577-C008-EA46-93DD-501D2AEC6E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553CF9A9-D58C-CE4F-9D9A-71F3B0212DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -41,13 +41,34 @@
   </si>
   <si>
     <t>attach</t>
+  </si>
+  <si>
+    <t>thomas.newman@hyatt.com</t>
+  </si>
+  <si>
+    <t>t.newman.uk@gmail.com</t>
+  </si>
+  <si>
+    <t>tnewman@avantstay.com</t>
+  </si>
+  <si>
+    <t>Multi Roles</t>
+  </si>
+  <si>
+    <t>Federated Vrbo PX User</t>
+  </si>
+  <si>
+    <t>Hotelier Admin</t>
+  </si>
+  <si>
+    <t>Enabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -65,6 +86,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF121617"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -93,10 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,11 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,12 +476,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>83710951</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>68394497</v>
+      </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>83710951</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>72115641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>83710951</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>72864339</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{3A5B876D-E184-C74B-8853-2CE20A98E0D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
